--- a/medicine/Mort/Cimetière_du_Nord_(Iéna)/Cimetière_du_Nord_(Iéna).xlsx
+++ b/medicine/Mort/Cimetière_du_Nord_(Iéna)/Cimetière_du_Nord_(Iéna).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(I%C3%A9na)</t>
+          <t>Cimetière_du_Nord_(Iéna)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Nord est le plus grand cimetière d'Iéna. Il couvre une superficie de 22 hectares et compte plus de 9 000 tombes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(I%C3%A9na)</t>
+          <t>Cimetière_du_Nord_(Iéna)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Lieu et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le cimetière nord est situé au nord du centre-ville et existe depuis 1884 en tant que cimetière municipal. Les grandes parties du jardin sont répertoriées aujourd'hui. Les premières funérailles ont lieu en 1889 et les premières incinérations en 1898 [1] 
-La salle de recueillement encore utilisée est conçue en 1887 par l'architecte Karl Timler et construite avec le maître d'œuvre Theodor Hartmann. Construit dans un style néoclassique comme un bâtiment en brique avec du calcaire et des colonnes, le bâtiment est équipé d'un orgue, entre autres. En 1897, le crématorium est construit. Il n'était alors que le cinquième construit en Allemagne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le cimetière nord est situé au nord du centre-ville et existe depuis 1884 en tant que cimetière municipal. Les grandes parties du jardin sont répertoriées aujourd'hui. Les premières funérailles ont lieu en 1889 et les premières incinérations en 1898  
+La salle de recueillement encore utilisée est conçue en 1887 par l'architecte Karl Timler et construite avec le maître d'œuvre Theodor Hartmann. Construit dans un style néoclassique comme un bâtiment en brique avec du calcaire et des colonnes, le bâtiment est équipé d'un orgue, entre autres. En 1897, le crématorium est construit. Il n'était alors que le cinquième construit en Allemagne.
 Il y a environ 9 050 tombes dans le cimetière nord (en date de 2013), dont: 
 25 tombeaux honoraires,
 59 tombes protégées
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(I%C3%A9na)</t>
+          <t>Cimetière_du_Nord_(Iéna)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>De nombreuses personnalités connues des XIXe et XXe siècles issues des sciences, de l'économie, de la politique, de l'art et de la culture trouvent leur dernier lieu de repos au cimetière d'Iéna-Nord[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>De nombreuses personnalités connues des XIXe et XXe siècles issues des sciences, de l'économie, de la politique, de l'art et de la culture trouvent leur dernier lieu de repos au cimetière d'Iéna-Nord.
 Ernst Abbe - physicien, statisticien, opticien, entrepreneur et réformateur social, 1840-1905
 Carl Blomeyer - juriste, 1844-1910
 Hans Boegehold - mathématicien et opticien, 1876-1965
